--- a/Dry Matter Anova Results.xlsx
+++ b/Dry Matter Anova Results.xlsx
@@ -396,22 +396,22 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>153.583710649959</v>
+        <v>153.2757408281065</v>
       </c>
       <c r="B2">
-        <v>8.532428369442167</v>
+        <v>9.016220048712146</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>49.0662218315514</v>
+        <v>49.00486168899375</v>
       </c>
       <c r="E2">
-        <v>3.908171395823187</v>
+        <v>4.129766087378998</v>
       </c>
       <c r="F2">
-        <v>7.485372735294861e-05</v>
+        <v>4.952888627804382e-05</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
